--- a/written/presentation/excels/chirpErr0degPower.xlsx
+++ b/written/presentation/excels/chirpErr0degPower.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -72,7 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,214 +1337,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>-13.394213000000001</c:v>
+                  <c:v>-1.055323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13.394213000000001</c:v>
+                  <c:v>-1.055323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9982329999999999</c:v>
+                  <c:v>-1.324953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.9982329999999999</c:v>
+                  <c:v>-1.324953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11.777552999999999</c:v>
+                  <c:v>0.15629599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.777552999999999</c:v>
+                  <c:v>0.15629599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.09455</c:v>
+                  <c:v>-2.153734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-12.09455</c:v>
+                  <c:v>-2.153734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.7005699999999999</c:v>
+                  <c:v>-3.9828809999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.7005699999999999</c:v>
+                  <c:v>-3.9828809999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-10.402146999999999</c:v>
+                  <c:v>-2.9549560000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-10.402146999999999</c:v>
+                  <c:v>-2.9549560000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.0530739999999996</c:v>
+                  <c:v>-3.6894390000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.0530739999999996</c:v>
+                  <c:v>-3.6894390000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.770654</c:v>
+                  <c:v>-2.319042</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.770654</c:v>
+                  <c:v>-2.319042</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1939999999999998E-2</c:v>
+                  <c:v>-1.2514400000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1939999999999998E-2</c:v>
+                  <c:v>-1.2514400000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.4378340000000001</c:v>
+                  <c:v>-0.51555399999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.4378340000000001</c:v>
+                  <c:v>-0.51555399999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.9206449999999999</c:v>
+                  <c:v>-0.71416500000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.9206449999999999</c:v>
+                  <c:v>-0.71416500000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19220000000000001</c:v>
+                  <c:v>-1.2172810000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.19220000000000001</c:v>
+                  <c:v>-1.2172810000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-14.641869</c:v>
+                  <c:v>-2.0234269999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-14.641869</c:v>
+                  <c:v>-2.0234269999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-22.419854000000001</c:v>
+                  <c:v>-1.6251979999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-22.419854000000001</c:v>
+                  <c:v>-1.6251979999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-13.522562000000001</c:v>
+                  <c:v>-1.354514</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-13.522562000000001</c:v>
+                  <c:v>-1.354514</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-10.539688999999999</c:v>
+                  <c:v>-3.0573139999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-10.539688999999999</c:v>
+                  <c:v>-3.0573139999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-10.895273</c:v>
+                  <c:v>-2.894574</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-10.895273</c:v>
+                  <c:v>-2.894574</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-10.498122</c:v>
+                  <c:v>-2.058732</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-10.498122</c:v>
+                  <c:v>-2.058732</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-14.439477</c:v>
+                  <c:v>-2.5770919999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-14.439477</c:v>
+                  <c:v>-2.5770919999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-12.248214000000001</c:v>
+                  <c:v>-2.3489019999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-12.248214000000001</c:v>
+                  <c:v>-2.3489019999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-9.9865539999999999</c:v>
+                  <c:v>-1.8928499999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-9.9865539999999999</c:v>
+                  <c:v>-1.8928499999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-17.764420999999999</c:v>
+                  <c:v>1.7864720000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-17.764420999999999</c:v>
+                  <c:v>1.7864720000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-11.463150000000001</c:v>
+                  <c:v>-0.68947599999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-11.463150000000001</c:v>
+                  <c:v>-0.68947599999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-9.4233220000000006</c:v>
+                  <c:v>-1.717808</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-9.4233220000000006</c:v>
+                  <c:v>-1.717808</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.50020200000000004</c:v>
+                  <c:v>-2.776313</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.50020200000000004</c:v>
+                  <c:v>-2.776313</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-5.3406669999999998</c:v>
+                  <c:v>-1.868714</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-5.3406669999999998</c:v>
+                  <c:v>-1.868714</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2.6271339999999999</c:v>
+                  <c:v>-2.7476820000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.6271339999999999</c:v>
+                  <c:v>-2.7476820000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.92814099999999999</c:v>
+                  <c:v>-2.6159560000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.92814099999999999</c:v>
+                  <c:v>-2.6159560000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.392355</c:v>
+                  <c:v>-1.2778480000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.392355</c:v>
+                  <c:v>-1.2778480000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.92471300000000001</c:v>
+                  <c:v>-0.90630900000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.92471300000000001</c:v>
+                  <c:v>-0.90630900000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2626299999999999</c:v>
+                  <c:v>-1.8477220000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2626299999999999</c:v>
+                  <c:v>-1.8477220000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-11.571574999999999</c:v>
+                  <c:v>-2.9210769999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-11.571574999999999</c:v>
+                  <c:v>-2.9210769999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.9245009999999998</c:v>
+                  <c:v>6.977671</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.9245009999999998</c:v>
+                  <c:v>6.977671</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.3881249999999996</c:v>
+                  <c:v>11.448639</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.3881249999999996</c:v>
+                  <c:v>11.448639</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.5384449999999998</c:v>
+                  <c:v>8.879588</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.5384449999999998</c:v>
+                  <c:v>8.879588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,214 +1821,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>5.8860669999999997</c:v>
+                  <c:v>3.6266310000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4428080000000003</c:v>
+                  <c:v>3.742238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6648430000000003</c:v>
+                  <c:v>3.0830980000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6941569999999997</c:v>
+                  <c:v>3.547733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.665775</c:v>
+                  <c:v>4.3471270000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6301800000000002</c:v>
+                  <c:v>4.5636260000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4131200000000002</c:v>
+                  <c:v>3.589467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6982100000000004</c:v>
+                  <c:v>3.916649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2837519999999998</c:v>
+                  <c:v>3.3687969999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6184609999999999</c:v>
+                  <c:v>3.7821820000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8249050000000002</c:v>
+                  <c:v>3.3008259999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5100939999999996</c:v>
+                  <c:v>3.6492119999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0786429999999996</c:v>
+                  <c:v>3.4662920000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0033370000000001</c:v>
+                  <c:v>3.8200829999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9952750000000004</c:v>
+                  <c:v>4.487114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2937479999999999</c:v>
+                  <c:v>3.076838</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6035360000000001</c:v>
+                  <c:v>3.4205019999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8366629999999997</c:v>
+                  <c:v>3.787623</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4754350000000001</c:v>
+                  <c:v>3.414866</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5283670000000003</c:v>
+                  <c:v>3.828668</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4235499999999996</c:v>
+                  <c:v>3.6767089999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2277509999999996</c:v>
+                  <c:v>3.789412</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3374930000000003</c:v>
+                  <c:v>3.372471</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6313599999999999</c:v>
+                  <c:v>3.6008650000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.4896859999999998</c:v>
+                  <c:v>3.3652139999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.310225</c:v>
+                  <c:v>3.027962</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9617779999999998</c:v>
+                  <c:v>3.554878</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.9029449999999999</c:v>
+                  <c:v>3.3180990000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6933179999999997</c:v>
+                  <c:v>3.3524949999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.0928589999999998</c:v>
+                  <c:v>3.3375789999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.7802210000000001</c:v>
+                  <c:v>3.8112810000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9432999999999998</c:v>
+                  <c:v>3.7853979999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.4866820000000001</c:v>
+                  <c:v>3.0207820000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.4288480000000003</c:v>
+                  <c:v>3.4548299999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.1765699999999999</c:v>
+                  <c:v>4.24125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.5772750000000002</c:v>
+                  <c:v>3.959101</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.9874140000000002</c:v>
+                  <c:v>3.8601329999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.3725259999999997</c:v>
+                  <c:v>3.4173070000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7000080000000004</c:v>
+                  <c:v>4.0637530000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9022600000000001</c:v>
+                  <c:v>2.9374829999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.5599270000000001</c:v>
+                  <c:v>3.2205499999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.8249789999999999</c:v>
+                  <c:v>3.3229449999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.718718</c:v>
+                  <c:v>3.4787919999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.9376379999999997</c:v>
+                  <c:v>3.3039329999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.1986499999999998</c:v>
+                  <c:v>3.1771560000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9753600000000002</c:v>
+                  <c:v>4.1999890000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.4643439999999996</c:v>
+                  <c:v>3.020918</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.8154079999999997</c:v>
+                  <c:v>3.5883039999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.1645940000000001</c:v>
+                  <c:v>3.5118830000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.0925500000000001</c:v>
+                  <c:v>4.4258350000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.7996449999999999</c:v>
+                  <c:v>3.4260139999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0511030000000003</c:v>
+                  <c:v>4.3460840000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.491663</c:v>
+                  <c:v>3.6614019999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.6901460000000004</c:v>
+                  <c:v>3.2081309999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.0714639999999997</c:v>
+                  <c:v>4.163265</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.2362919999999997</c:v>
+                  <c:v>3.6809980000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.1080740000000002</c:v>
+                  <c:v>3.0806819999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9363630000000001</c:v>
+                  <c:v>3.6781830000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.6461759999999996</c:v>
+                  <c:v>3.6068020000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.1297370000000004</c:v>
+                  <c:v>3.5886800000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.7921259999999997</c:v>
+                  <c:v>3.3261370000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.4058390000000003</c:v>
+                  <c:v>3.6415000000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.1385300000000003</c:v>
+                  <c:v>3.5385949999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.903791</c:v>
+                  <c:v>3.2215289999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.5071120000000002</c:v>
+                  <c:v>3.6113379999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.0591860000000004</c:v>
+                  <c:v>3.856398</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.4281949999999997</c:v>
+                  <c:v>3.572743</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.0504800000000003</c:v>
+                  <c:v>3.5172639999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.7955500000000004</c:v>
+                  <c:v>2.9781240000000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.974621</c:v>
+                  <c:v>3.826848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,11 +2043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-14858080"/>
-        <c:axId val="-14857536"/>
+        <c:axId val="192536320"/>
+        <c:axId val="192536864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-14858080"/>
+        <c:axId val="192536320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2163,12 +2161,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-14857536"/>
+        <c:crossAx val="192536864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-14857536"/>
+        <c:axId val="192536864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2284,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-14858080"/>
+        <c:crossAx val="192536320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2318,7 +2316,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2964,1224 +2962,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>preCal</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>ideal</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>ClassicalCal</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>MutualCal</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>3.35331</v>
-          </cell>
-          <cell r="C2">
-            <v>6</v>
-          </cell>
-          <cell r="D2">
-            <v>9.2118110000000009</v>
-          </cell>
-          <cell r="E2">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3">
-            <v>1.399089</v>
-          </cell>
-          <cell r="C3">
-            <v>6</v>
-          </cell>
-          <cell r="D3">
-            <v>5.2343929999999999</v>
-          </cell>
-          <cell r="E3">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="B4">
-            <v>4.1938979999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>6</v>
-          </cell>
-          <cell r="D4">
-            <v>6.4449889999999996</v>
-          </cell>
-          <cell r="E4">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="B5">
-            <v>5.1069370000000003</v>
-          </cell>
-          <cell r="C5">
-            <v>6</v>
-          </cell>
-          <cell r="D5">
-            <v>7.1264950000000002</v>
-          </cell>
-          <cell r="E5">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-          <cell r="B6">
-            <v>8.6538690000000003</v>
-          </cell>
-          <cell r="C6">
-            <v>6</v>
-          </cell>
-          <cell r="D6">
-            <v>7.8065280000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="B7">
-            <v>7.8705189999999998</v>
-          </cell>
-          <cell r="C7">
-            <v>6</v>
-          </cell>
-          <cell r="D7">
-            <v>8.2410150000000009</v>
-          </cell>
-          <cell r="E7">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-          <cell r="B8">
-            <v>4.4788560000000004</v>
-          </cell>
-          <cell r="C8">
-            <v>6</v>
-          </cell>
-          <cell r="D8">
-            <v>7.5043480000000002</v>
-          </cell>
-          <cell r="E8">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-          <cell r="B9">
-            <v>1.2167749999999999</v>
-          </cell>
-          <cell r="C9">
-            <v>6</v>
-          </cell>
-          <cell r="D9">
-            <v>2.4634749999999999</v>
-          </cell>
-          <cell r="E9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-          <cell r="B10">
-            <v>8.8018009999999993</v>
-          </cell>
-          <cell r="C10">
-            <v>6</v>
-          </cell>
-          <cell r="D10">
-            <v>9.2341689999999996</v>
-          </cell>
-          <cell r="E10">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-          <cell r="B11">
-            <v>6.8755519999999999</v>
-          </cell>
-          <cell r="C11">
-            <v>6</v>
-          </cell>
-          <cell r="D11">
-            <v>4.6680060000000001</v>
-          </cell>
-          <cell r="E11">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>10</v>
-          </cell>
-          <cell r="B12">
-            <v>2.0585</v>
-          </cell>
-          <cell r="C12">
-            <v>6</v>
-          </cell>
-          <cell r="D12">
-            <v>2.7954910000000002</v>
-          </cell>
-          <cell r="E12">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>11</v>
-          </cell>
-          <cell r="B13">
-            <v>6.1072139999999999</v>
-          </cell>
-          <cell r="C13">
-            <v>6</v>
-          </cell>
-          <cell r="D13">
-            <v>7.6760929999999998</v>
-          </cell>
-          <cell r="E13">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>12</v>
-          </cell>
-          <cell r="B14">
-            <v>14.647365000000001</v>
-          </cell>
-          <cell r="C14">
-            <v>6</v>
-          </cell>
-          <cell r="D14">
-            <v>7.2469710000000003</v>
-          </cell>
-          <cell r="E14">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>13</v>
-          </cell>
-          <cell r="B15">
-            <v>15.264538999999999</v>
-          </cell>
-          <cell r="C15">
-            <v>6</v>
-          </cell>
-          <cell r="D15">
-            <v>6.451962</v>
-          </cell>
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>14</v>
-          </cell>
-          <cell r="B16">
-            <v>5.2968190000000002</v>
-          </cell>
-          <cell r="C16">
-            <v>6</v>
-          </cell>
-          <cell r="D16">
-            <v>6.6487499999999997</v>
-          </cell>
-          <cell r="E16">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>15</v>
-          </cell>
-          <cell r="B17">
-            <v>9.9995700000000003</v>
-          </cell>
-          <cell r="C17">
-            <v>6</v>
-          </cell>
-          <cell r="D17">
-            <v>6.358473</v>
-          </cell>
-          <cell r="E17">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>16</v>
-          </cell>
-          <cell r="B18">
-            <v>11.421306</v>
-          </cell>
-          <cell r="C18">
-            <v>6</v>
-          </cell>
-          <cell r="D18">
-            <v>8.347702</v>
-          </cell>
-          <cell r="E18">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>17</v>
-          </cell>
-          <cell r="B19">
-            <v>5.3952580000000001</v>
-          </cell>
-          <cell r="C19">
-            <v>6</v>
-          </cell>
-          <cell r="D19">
-            <v>6.060594</v>
-          </cell>
-          <cell r="E19">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>18</v>
-          </cell>
-          <cell r="B20">
-            <v>2.9566349999999999</v>
-          </cell>
-          <cell r="C20">
-            <v>6</v>
-          </cell>
-          <cell r="D20">
-            <v>6.8851760000000004</v>
-          </cell>
-          <cell r="E20">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>19</v>
-          </cell>
-          <cell r="B21">
-            <v>5.2520309999999997</v>
-          </cell>
-          <cell r="C21">
-            <v>6</v>
-          </cell>
-          <cell r="D21">
-            <v>6.9070179999999999</v>
-          </cell>
-          <cell r="E21">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>20</v>
-          </cell>
-          <cell r="B22">
-            <v>6.9041350000000001</v>
-          </cell>
-          <cell r="C22">
-            <v>6</v>
-          </cell>
-          <cell r="D22">
-            <v>9.4182640000000006</v>
-          </cell>
-          <cell r="E22">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>21</v>
-          </cell>
-          <cell r="B23">
-            <v>5.8507000000000003E-2</v>
-          </cell>
-          <cell r="C23">
-            <v>6</v>
-          </cell>
-          <cell r="D23">
-            <v>0.99573900000000004</v>
-          </cell>
-          <cell r="E23">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>22</v>
-          </cell>
-          <cell r="B24">
-            <v>9.0395479999999999</v>
-          </cell>
-          <cell r="C24">
-            <v>6</v>
-          </cell>
-          <cell r="D24">
-            <v>8.3051440000000003</v>
-          </cell>
-          <cell r="E24">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>23</v>
-          </cell>
-          <cell r="B25">
-            <v>5.1953420000000001</v>
-          </cell>
-          <cell r="C25">
-            <v>6</v>
-          </cell>
-          <cell r="D25">
-            <v>5.5040909999999998</v>
-          </cell>
-          <cell r="E25">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>24</v>
-          </cell>
-          <cell r="B26">
-            <v>9.5196699999999996</v>
-          </cell>
-          <cell r="C26">
-            <v>6</v>
-          </cell>
-          <cell r="D26">
-            <v>6.1088630000000004</v>
-          </cell>
-          <cell r="E26">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>25</v>
-          </cell>
-          <cell r="B27">
-            <v>4.517163</v>
-          </cell>
-          <cell r="C27">
-            <v>6</v>
-          </cell>
-          <cell r="D27">
-            <v>3.5994860000000002</v>
-          </cell>
-          <cell r="E27">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>26</v>
-          </cell>
-          <cell r="B28">
-            <v>3.2823180000000001</v>
-          </cell>
-          <cell r="C28">
-            <v>6</v>
-          </cell>
-          <cell r="D28">
-            <v>5.5181620000000002</v>
-          </cell>
-          <cell r="E28">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>27</v>
-          </cell>
-          <cell r="B29">
-            <v>-2.7496350000000001</v>
-          </cell>
-          <cell r="C29">
-            <v>6</v>
-          </cell>
-          <cell r="D29">
-            <v>0.29621399999999998</v>
-          </cell>
-          <cell r="E29">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>28</v>
-          </cell>
-          <cell r="B30">
-            <v>2.1864780000000001</v>
-          </cell>
-          <cell r="C30">
-            <v>6</v>
-          </cell>
-          <cell r="D30">
-            <v>8.5886209999999998</v>
-          </cell>
-          <cell r="E30">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>29</v>
-          </cell>
-          <cell r="B31">
-            <v>-1.030087</v>
-          </cell>
-          <cell r="C31">
-            <v>6</v>
-          </cell>
-          <cell r="D31">
-            <v>8.0781890000000001</v>
-          </cell>
-          <cell r="E31">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>30</v>
-          </cell>
-          <cell r="B32">
-            <v>9.1730990000000006</v>
-          </cell>
-          <cell r="C32">
-            <v>6</v>
-          </cell>
-          <cell r="D32">
-            <v>6.6717810000000002</v>
-          </cell>
-          <cell r="E32">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>31</v>
-          </cell>
-          <cell r="B33">
-            <v>2.9310390000000002</v>
-          </cell>
-          <cell r="C33">
-            <v>6</v>
-          </cell>
-          <cell r="D33">
-            <v>4.7506199999999996</v>
-          </cell>
-          <cell r="E33">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>32</v>
-          </cell>
-          <cell r="B34">
-            <v>8.7324420000000007</v>
-          </cell>
-          <cell r="C34">
-            <v>6</v>
-          </cell>
-          <cell r="D34">
-            <v>5.2348739999999996</v>
-          </cell>
-          <cell r="E34">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>33</v>
-          </cell>
-          <cell r="B35">
-            <v>8.6590330000000009</v>
-          </cell>
-          <cell r="C35">
-            <v>6</v>
-          </cell>
-          <cell r="D35">
-            <v>5.4367330000000003</v>
-          </cell>
-          <cell r="E35">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>34</v>
-          </cell>
-          <cell r="B36">
-            <v>6.644342</v>
-          </cell>
-          <cell r="C36">
-            <v>6</v>
-          </cell>
-          <cell r="D36">
-            <v>7.6022809999999996</v>
-          </cell>
-          <cell r="E36">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>35</v>
-          </cell>
-          <cell r="B37">
-            <v>12.968737000000001</v>
-          </cell>
-          <cell r="C37">
-            <v>6</v>
-          </cell>
-          <cell r="D37">
-            <v>9.7568110000000008</v>
-          </cell>
-          <cell r="E37">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>36</v>
-          </cell>
-          <cell r="B38">
-            <v>7.4913920000000003</v>
-          </cell>
-          <cell r="C38">
-            <v>6</v>
-          </cell>
-          <cell r="D38">
-            <v>5.3500220000000001</v>
-          </cell>
-          <cell r="E38">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>37</v>
-          </cell>
-          <cell r="B39">
-            <v>7.0541559999999999</v>
-          </cell>
-          <cell r="C39">
-            <v>6</v>
-          </cell>
-          <cell r="D39">
-            <v>5.6135320000000002</v>
-          </cell>
-          <cell r="E39">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>38</v>
-          </cell>
-          <cell r="B40">
-            <v>9.0624280000000006</v>
-          </cell>
-          <cell r="C40">
-            <v>6</v>
-          </cell>
-          <cell r="D40">
-            <v>4.9329900000000002</v>
-          </cell>
-          <cell r="E40">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>39</v>
-          </cell>
-          <cell r="B41">
-            <v>12.612156000000001</v>
-          </cell>
-          <cell r="C41">
-            <v>6</v>
-          </cell>
-          <cell r="D41">
-            <v>7.0033729999999998</v>
-          </cell>
-          <cell r="E41">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>40</v>
-          </cell>
-          <cell r="B42">
-            <v>8.0019910000000003</v>
-          </cell>
-          <cell r="C42">
-            <v>6</v>
-          </cell>
-          <cell r="D42">
-            <v>6.3124250000000002</v>
-          </cell>
-          <cell r="E42">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>41</v>
-          </cell>
-          <cell r="B43">
-            <v>11.263227000000001</v>
-          </cell>
-          <cell r="C43">
-            <v>6</v>
-          </cell>
-          <cell r="D43">
-            <v>8.3376199999999994</v>
-          </cell>
-          <cell r="E43">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>42</v>
-          </cell>
-          <cell r="B44">
-            <v>9.8009140000000006</v>
-          </cell>
-          <cell r="C44">
-            <v>6</v>
-          </cell>
-          <cell r="D44">
-            <v>8.3021589999999996</v>
-          </cell>
-          <cell r="E44">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>43</v>
-          </cell>
-          <cell r="B45">
-            <v>6.3136159999999997</v>
-          </cell>
-          <cell r="C45">
-            <v>6</v>
-          </cell>
-          <cell r="D45">
-            <v>4.3593460000000004</v>
-          </cell>
-          <cell r="E45">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>44</v>
-          </cell>
-          <cell r="B46">
-            <v>5.9711030000000003</v>
-          </cell>
-          <cell r="C46">
-            <v>6</v>
-          </cell>
-          <cell r="D46">
-            <v>7.176488</v>
-          </cell>
-          <cell r="E46">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>45</v>
-          </cell>
-          <cell r="B47">
-            <v>6.9053529999999999</v>
-          </cell>
-          <cell r="C47">
-            <v>6</v>
-          </cell>
-          <cell r="D47">
-            <v>7.0404179999999998</v>
-          </cell>
-          <cell r="E47">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>46</v>
-          </cell>
-          <cell r="B48">
-            <v>9.2155950000000004</v>
-          </cell>
-          <cell r="C48">
-            <v>6</v>
-          </cell>
-          <cell r="D48">
-            <v>5.8484109999999996</v>
-          </cell>
-          <cell r="E48">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>47</v>
-          </cell>
-          <cell r="B49">
-            <v>5.9108559999999999</v>
-          </cell>
-          <cell r="C49">
-            <v>6</v>
-          </cell>
-          <cell r="D49">
-            <v>3.4810509999999999</v>
-          </cell>
-          <cell r="E49">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>48</v>
-          </cell>
-          <cell r="B50">
-            <v>1.207436</v>
-          </cell>
-          <cell r="C50">
-            <v>6</v>
-          </cell>
-          <cell r="D50">
-            <v>2.5541680000000002</v>
-          </cell>
-          <cell r="E50">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>49</v>
-          </cell>
-          <cell r="B51">
-            <v>6.9633979999999998</v>
-          </cell>
-          <cell r="C51">
-            <v>6</v>
-          </cell>
-          <cell r="D51">
-            <v>5.79915</v>
-          </cell>
-          <cell r="E51">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>50</v>
-          </cell>
-          <cell r="B52">
-            <v>-1.6967559999999999</v>
-          </cell>
-          <cell r="C52">
-            <v>6</v>
-          </cell>
-          <cell r="D52">
-            <v>3.3843480000000001</v>
-          </cell>
-          <cell r="E52">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>51</v>
-          </cell>
-          <cell r="B53">
-            <v>0.17235800000000001</v>
-          </cell>
-          <cell r="C53">
-            <v>6</v>
-          </cell>
-          <cell r="D53">
-            <v>4.5411549999999998</v>
-          </cell>
-          <cell r="E53">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>52</v>
-          </cell>
-          <cell r="B54">
-            <v>3.47987</v>
-          </cell>
-          <cell r="C54">
-            <v>6</v>
-          </cell>
-          <cell r="D54">
-            <v>6.6703729999999997</v>
-          </cell>
-          <cell r="E54">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>53</v>
-          </cell>
-          <cell r="B55">
-            <v>4.0739010000000002</v>
-          </cell>
-          <cell r="C55">
-            <v>6</v>
-          </cell>
-          <cell r="D55">
-            <v>6.5894500000000003</v>
-          </cell>
-          <cell r="E55">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>54</v>
-          </cell>
-          <cell r="B56">
-            <v>1.0936129999999999</v>
-          </cell>
-          <cell r="C56">
-            <v>6</v>
-          </cell>
-          <cell r="D56">
-            <v>5.2925829999999996</v>
-          </cell>
-          <cell r="E56">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>55</v>
-          </cell>
-          <cell r="B57">
-            <v>4.4004529999999997</v>
-          </cell>
-          <cell r="C57">
-            <v>6</v>
-          </cell>
-          <cell r="D57">
-            <v>6.5500439999999998</v>
-          </cell>
-          <cell r="E57">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>56</v>
-          </cell>
-          <cell r="B58">
-            <v>2.7297889999999998</v>
-          </cell>
-          <cell r="C58">
-            <v>6</v>
-          </cell>
-          <cell r="D58">
-            <v>6.2225950000000001</v>
-          </cell>
-          <cell r="E58">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>57</v>
-          </cell>
-          <cell r="B59">
-            <v>5.607043</v>
-          </cell>
-          <cell r="C59">
-            <v>6</v>
-          </cell>
-          <cell r="D59">
-            <v>7.1497729999999997</v>
-          </cell>
-          <cell r="E59">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>58</v>
-          </cell>
-          <cell r="B60">
-            <v>6.3738970000000004</v>
-          </cell>
-          <cell r="C60">
-            <v>6</v>
-          </cell>
-          <cell r="D60">
-            <v>4.9916609999999997</v>
-          </cell>
-          <cell r="E60">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>59</v>
-          </cell>
-          <cell r="B61">
-            <v>8.5116560000000003</v>
-          </cell>
-          <cell r="C61">
-            <v>6</v>
-          </cell>
-          <cell r="D61">
-            <v>7.4178839999999999</v>
-          </cell>
-          <cell r="E61">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>60</v>
-          </cell>
-          <cell r="B62">
-            <v>4.767144</v>
-          </cell>
-          <cell r="C62">
-            <v>6</v>
-          </cell>
-          <cell r="D62">
-            <v>7.277158</v>
-          </cell>
-          <cell r="E62">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>61</v>
-          </cell>
-          <cell r="B63">
-            <v>5.1261029999999996</v>
-          </cell>
-          <cell r="C63">
-            <v>6</v>
-          </cell>
-          <cell r="D63">
-            <v>6.1027319999999996</v>
-          </cell>
-          <cell r="E63">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>62</v>
-          </cell>
-          <cell r="B64">
-            <v>9.1463739999999998</v>
-          </cell>
-          <cell r="C64">
-            <v>6</v>
-          </cell>
-          <cell r="D64">
-            <v>5.2055449999999999</v>
-          </cell>
-          <cell r="E64">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>63</v>
-          </cell>
-          <cell r="B65">
-            <v>10.801228</v>
-          </cell>
-          <cell r="C65">
-            <v>6</v>
-          </cell>
-          <cell r="D65">
-            <v>4.8254450000000002</v>
-          </cell>
-          <cell r="E65">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>64</v>
-          </cell>
-          <cell r="B66">
-            <v>5.5528069999999996</v>
-          </cell>
-          <cell r="C66">
-            <v>6</v>
-          </cell>
-          <cell r="D66">
-            <v>5.036295</v>
-          </cell>
-          <cell r="E66">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>65</v>
-          </cell>
-          <cell r="B67">
-            <v>8.9777500000000003</v>
-          </cell>
-          <cell r="C67">
-            <v>6</v>
-          </cell>
-          <cell r="D67">
-            <v>6.4825400000000002</v>
-          </cell>
-          <cell r="E67">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>66</v>
-          </cell>
-          <cell r="B68">
-            <v>12.073649</v>
-          </cell>
-          <cell r="C68">
-            <v>6</v>
-          </cell>
-          <cell r="D68">
-            <v>7.3270900000000001</v>
-          </cell>
-          <cell r="E68">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>67</v>
-          </cell>
-          <cell r="B69">
-            <v>6.7677709999999998</v>
-          </cell>
-          <cell r="C69">
-            <v>6</v>
-          </cell>
-          <cell r="D69">
-            <v>3.9860129999999998</v>
-          </cell>
-          <cell r="E69">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>68</v>
-          </cell>
-          <cell r="B70">
-            <v>9.1574190000000009</v>
-          </cell>
-          <cell r="C70">
-            <v>6</v>
-          </cell>
-          <cell r="D70">
-            <v>7.3357260000000002</v>
-          </cell>
-          <cell r="E70">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>69</v>
-          </cell>
-          <cell r="B71">
-            <v>7.0732229999999996</v>
-          </cell>
-          <cell r="C71">
-            <v>6</v>
-          </cell>
-          <cell r="D71">
-            <v>6.9897049999999998</v>
-          </cell>
-          <cell r="E71">
-            <v>6</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4472,7 +3252,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D71"/>
+      <selection activeCell="E2" sqref="E2:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4505,10 +3285,10 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>-13.394213000000001</v>
-      </c>
-      <c r="E2">
-        <v>5.8860669999999997</v>
+        <v>-1.055323</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.6266310000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4522,10 +3302,10 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>-13.394213000000001</v>
-      </c>
-      <c r="E3">
-        <v>5.4428080000000003</v>
+        <v>-1.055323</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.742238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4539,10 +3319,10 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-3.9982329999999999</v>
-      </c>
-      <c r="E4">
-        <v>5.6648430000000003</v>
+        <v>-1.324953</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.0830980000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4556,10 +3336,10 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-3.9982329999999999</v>
-      </c>
-      <c r="E5">
-        <v>5.6941569999999997</v>
+        <v>-1.324953</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.547733</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4573,10 +3353,10 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-11.777552999999999</v>
-      </c>
-      <c r="E6">
-        <v>5.665775</v>
+        <v>0.15629599999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.3471270000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4590,10 +3370,10 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-11.777552999999999</v>
-      </c>
-      <c r="E7">
-        <v>5.6301800000000002</v>
+        <v>0.15629599999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.5636260000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4607,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>-12.09455</v>
-      </c>
-      <c r="E8">
-        <v>5.4131200000000002</v>
+        <v>-2.153734</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.589467</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4624,10 +3404,10 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>-12.09455</v>
-      </c>
-      <c r="E9">
-        <v>5.6982100000000004</v>
+        <v>-2.153734</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.916649</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4641,10 +3421,10 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>-2.7005699999999999</v>
-      </c>
-      <c r="E10">
-        <v>5.2837519999999998</v>
+        <v>-3.9828809999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.3687969999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4658,10 +3438,10 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>-2.7005699999999999</v>
-      </c>
-      <c r="E11">
-        <v>5.6184609999999999</v>
+        <v>-3.9828809999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.7821820000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4675,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-10.402146999999999</v>
-      </c>
-      <c r="E12">
-        <v>5.8249050000000002</v>
+        <v>-2.9549560000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.3008259999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -4692,10 +3472,10 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-10.402146999999999</v>
-      </c>
-      <c r="E13">
-        <v>5.5100939999999996</v>
+        <v>-2.9549560000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.6492119999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4709,10 +3489,10 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>-7.0530739999999996</v>
-      </c>
-      <c r="E14">
-        <v>6.0786429999999996</v>
+        <v>-3.6894390000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.4662920000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4726,10 +3506,10 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>-7.0530739999999996</v>
-      </c>
-      <c r="E15">
-        <v>6.0033370000000001</v>
+        <v>-3.6894390000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.8200829999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4743,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>-3.770654</v>
-      </c>
-      <c r="E16">
-        <v>5.9952750000000004</v>
+        <v>-2.319042</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.487114</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4760,10 +3540,10 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>-3.770654</v>
-      </c>
-      <c r="E17">
-        <v>6.2937479999999999</v>
+        <v>-2.319042</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.076838</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4777,10 +3557,10 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>4.1939999999999998E-2</v>
-      </c>
-      <c r="E18">
-        <v>5.6035360000000001</v>
+        <v>-1.2514400000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.4205019999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -4794,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>4.1939999999999998E-2</v>
-      </c>
-      <c r="E19">
-        <v>4.8366629999999997</v>
+        <v>-1.2514400000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.787623</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4811,10 +3591,10 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>-3.4378340000000001</v>
-      </c>
-      <c r="E20">
-        <v>5.4754350000000001</v>
+        <v>-0.51555399999999996</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.414866</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -4828,10 +3608,10 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>-3.4378340000000001</v>
-      </c>
-      <c r="E21">
-        <v>5.5283670000000003</v>
+        <v>-0.51555399999999996</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.828668</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4845,10 +3625,10 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>-1.9206449999999999</v>
-      </c>
-      <c r="E22">
-        <v>5.4235499999999996</v>
+        <v>-0.71416500000000005</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.6767089999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4862,10 +3642,10 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>-1.9206449999999999</v>
-      </c>
-      <c r="E23">
-        <v>5.2277509999999996</v>
+        <v>-0.71416500000000005</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.789412</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -4879,10 +3659,10 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>0.19220000000000001</v>
-      </c>
-      <c r="E24">
-        <v>5.3374930000000003</v>
+        <v>-1.2172810000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.372471</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -4896,10 +3676,10 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>0.19220000000000001</v>
-      </c>
-      <c r="E25">
-        <v>5.6313599999999999</v>
+        <v>-1.2172810000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.6008650000000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -4913,10 +3693,10 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>-14.641869</v>
-      </c>
-      <c r="E26">
-        <v>5.4896859999999998</v>
+        <v>-2.0234269999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.3652139999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -4930,10 +3710,10 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>-14.641869</v>
-      </c>
-      <c r="E27">
-        <v>5.310225</v>
+        <v>-2.0234269999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.027962</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -4947,10 +3727,10 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>-22.419854000000001</v>
-      </c>
-      <c r="E28">
-        <v>5.9617779999999998</v>
+        <v>-1.6251979999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.554878</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -4964,10 +3744,10 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>-22.419854000000001</v>
-      </c>
-      <c r="E29">
-        <v>5.9029449999999999</v>
+        <v>-1.6251979999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.3180990000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4981,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>-13.522562000000001</v>
-      </c>
-      <c r="E30">
-        <v>5.6933179999999997</v>
+        <v>-1.354514</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.3524949999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4998,10 +3778,10 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>-13.522562000000001</v>
-      </c>
-      <c r="E31">
-        <v>6.0928589999999998</v>
+        <v>-1.354514</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.3375789999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -5015,10 +3795,10 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>-10.539688999999999</v>
-      </c>
-      <c r="E32">
-        <v>5.7802210000000001</v>
+        <v>-3.0573139999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.8112810000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5032,10 +3812,10 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>-10.539688999999999</v>
-      </c>
-      <c r="E33">
-        <v>4.9432999999999998</v>
+        <v>-3.0573139999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3.7853979999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -5049,10 +3829,10 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>-10.895273</v>
-      </c>
-      <c r="E34">
-        <v>5.4866820000000001</v>
+        <v>-2.894574</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.0207820000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -5066,10 +3846,10 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>-10.895273</v>
-      </c>
-      <c r="E35">
-        <v>5.4288480000000003</v>
+        <v>-2.894574</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.4548299999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -5083,10 +3863,10 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>-10.498122</v>
-      </c>
-      <c r="E36">
-        <v>6.1765699999999999</v>
+        <v>-2.058732</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4.24125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -5100,10 +3880,10 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>-10.498122</v>
-      </c>
-      <c r="E37">
-        <v>5.5772750000000002</v>
+        <v>-2.058732</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.959101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -5117,10 +3897,10 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>-14.439477</v>
-      </c>
-      <c r="E38">
-        <v>5.9874140000000002</v>
+        <v>-2.5770919999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.8601329999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -5134,10 +3914,10 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>-14.439477</v>
-      </c>
-      <c r="E39">
-        <v>6.3725259999999997</v>
+        <v>-2.5770919999999999</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3.4173070000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -5151,10 +3931,10 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>-12.248214000000001</v>
-      </c>
-      <c r="E40">
-        <v>5.7000080000000004</v>
+        <v>-2.3489019999999998</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4.0637530000000002</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -5168,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>-12.248214000000001</v>
-      </c>
-      <c r="E41">
-        <v>4.9022600000000001</v>
+        <v>-2.3489019999999998</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2.9374829999999998</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -5185,10 +3965,10 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>-9.9865539999999999</v>
-      </c>
-      <c r="E42">
-        <v>5.5599270000000001</v>
+        <v>-1.8928499999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.2205499999999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -5202,10 +3982,10 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>-9.9865539999999999</v>
-      </c>
-      <c r="E43">
-        <v>5.8249789999999999</v>
+        <v>-1.8928499999999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.3229449999999998</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -5219,10 +3999,10 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>-17.764420999999999</v>
-      </c>
-      <c r="E44">
-        <v>4.718718</v>
+        <v>1.7864720000000001</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.4787919999999999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -5236,10 +4016,10 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>-17.764420999999999</v>
-      </c>
-      <c r="E45">
-        <v>5.9376379999999997</v>
+        <v>1.7864720000000001</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.3039329999999998</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -5253,10 +4033,10 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>-11.463150000000001</v>
-      </c>
-      <c r="E46">
-        <v>5.1986499999999998</v>
+        <v>-0.68947599999999998</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3.1771560000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -5270,10 +4050,10 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>-11.463150000000001</v>
-      </c>
-      <c r="E47">
-        <v>5.9753600000000002</v>
+        <v>-0.68947599999999998</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4.1999890000000004</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -5287,10 +4067,10 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>-9.4233220000000006</v>
-      </c>
-      <c r="E48">
-        <v>5.4643439999999996</v>
+        <v>-1.717808</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3.020918</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -5304,10 +4084,10 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>-9.4233220000000006</v>
-      </c>
-      <c r="E49">
-        <v>5.8154079999999997</v>
+        <v>-1.717808</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3.5883039999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -5321,10 +4101,10 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>-0.50020200000000004</v>
-      </c>
-      <c r="E50">
-        <v>5.1645940000000001</v>
+        <v>-2.776313</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3.5118830000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -5338,10 +4118,10 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>-0.50020200000000004</v>
-      </c>
-      <c r="E51">
-        <v>6.0925500000000001</v>
+        <v>-2.776313</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4.4258350000000002</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -5355,10 +4135,10 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>-5.3406669999999998</v>
-      </c>
-      <c r="E52">
-        <v>5.7996449999999999</v>
+        <v>-1.868714</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.4260139999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -5372,10 +4152,10 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>-5.3406669999999998</v>
-      </c>
-      <c r="E53">
-        <v>6.0511030000000003</v>
+        <v>-1.868714</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4.3460840000000003</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -5389,10 +4169,10 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>-2.6271339999999999</v>
-      </c>
-      <c r="E54">
-        <v>5.491663</v>
+        <v>-2.7476820000000002</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3.6614019999999998</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -5406,10 +4186,10 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>-2.6271339999999999</v>
-      </c>
-      <c r="E55">
-        <v>5.6901460000000004</v>
+        <v>-2.7476820000000002</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3.2081309999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -5423,10 +4203,10 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>-0.92814099999999999</v>
-      </c>
-      <c r="E56">
-        <v>6.0714639999999997</v>
+        <v>-2.6159560000000002</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4.163265</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -5440,10 +4220,10 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>-0.92814099999999999</v>
-      </c>
-      <c r="E57">
-        <v>5.2362919999999997</v>
+        <v>-2.6159560000000002</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3.6809980000000002</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -5457,10 +4237,10 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>-1.392355</v>
-      </c>
-      <c r="E58">
-        <v>6.1080740000000002</v>
+        <v>-1.2778480000000001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3.0806819999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -5474,10 +4254,10 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>-1.392355</v>
-      </c>
-      <c r="E59">
-        <v>4.9363630000000001</v>
+        <v>-1.2778480000000001</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3.6781830000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -5491,10 +4271,10 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>0.92471300000000001</v>
-      </c>
-      <c r="E60">
-        <v>5.6461759999999996</v>
+        <v>-0.90630900000000003</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3.6068020000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -5508,10 +4288,10 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>0.92471300000000001</v>
-      </c>
-      <c r="E61">
-        <v>6.1297370000000004</v>
+        <v>-0.90630900000000003</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3.5886800000000001</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -5525,10 +4305,10 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>1.2626299999999999</v>
-      </c>
-      <c r="E62">
-        <v>5.7921259999999997</v>
+        <v>-1.8477220000000001</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3.3261370000000001</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -5542,10 +4322,10 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>1.2626299999999999</v>
-      </c>
-      <c r="E63">
-        <v>5.4058390000000003</v>
+        <v>-1.8477220000000001</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3.6415000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -5559,10 +4339,10 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>-11.571574999999999</v>
-      </c>
-      <c r="E64">
-        <v>6.1385300000000003</v>
+        <v>-2.9210769999999999</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3.5385949999999999</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -5576,10 +4356,10 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>-11.571574999999999</v>
-      </c>
-      <c r="E65">
-        <v>5.903791</v>
+        <v>-2.9210769999999999</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3.2215289999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -5593,10 +4373,10 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <v>2.9245009999999998</v>
-      </c>
-      <c r="E66">
-        <v>5.5071120000000002</v>
+        <v>6.977671</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3.6113379999999999</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -5610,10 +4390,10 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>2.9245009999999998</v>
-      </c>
-      <c r="E67">
-        <v>5.0591860000000004</v>
+        <v>6.977671</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3.856398</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -5627,10 +4407,10 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>4.3881249999999996</v>
-      </c>
-      <c r="E68">
-        <v>5.4281949999999997</v>
+        <v>11.448639</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3.572743</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -5644,10 +4424,10 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>4.3881249999999996</v>
-      </c>
-      <c r="E69">
-        <v>5.0504800000000003</v>
+        <v>11.448639</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3.5172639999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -5661,10 +4441,10 @@
         <v>6</v>
       </c>
       <c r="D70">
-        <v>3.5384449999999998</v>
-      </c>
-      <c r="E70">
-        <v>5.7955500000000004</v>
+        <v>8.879588</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2.9781240000000002</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -5678,10 +4458,10 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>3.5384449999999998</v>
-      </c>
-      <c r="E71">
-        <v>5.974621</v>
+        <v>8.879588</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3.826848</v>
       </c>
     </row>
   </sheetData>
